--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,23 +715,6 @@
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -475,7 +475,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,7 +494,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -509,7 +513,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -526,7 +532,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -543,7 +551,9 @@
           <t>first</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -560,7 +570,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -577,7 +589,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -594,7 +608,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -611,7 +627,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -628,7 +646,9 @@
           <t>second</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -645,7 +665,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -662,7 +684,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -679,7 +703,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -696,7 +722,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -713,7 +741,9 @@
           <t>third</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
